--- a/化工/eta/乙二醇加权利润残差拟合-总库存_月度数据.xlsx
+++ b/化工/eta/乙二醇加权利润残差拟合-总库存_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>-12</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-26</v>
+        <v>-25</v>
       </c>
       <c r="C3" t="n">
-        <v>-21</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>-28</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="5">
@@ -497,7 +497,7 @@
         <v>144</v>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         <v>134</v>
       </c>
       <c r="C6" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         <v>154</v>
       </c>
       <c r="C7" t="n">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8">
@@ -536,7 +536,7 @@
         <v>275</v>
       </c>
       <c r="C8" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9">
@@ -549,7 +549,7 @@
         <v>244</v>
       </c>
       <c r="C9" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10">
@@ -575,7 +575,7 @@
         <v>141</v>
       </c>
       <c r="C11" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12">
@@ -666,7 +666,7 @@
         <v>-29</v>
       </c>
       <c r="C18" t="n">
-        <v>-28</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="19">
